--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3022.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3022.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.17269838372555</v>
+        <v>1.473899126052856</v>
       </c>
       <c r="B1">
-        <v>2.066083863198492</v>
+        <v>1.502867698669434</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>8.067152976989746</v>
       </c>
       <c r="D1">
-        <v>2.048718807329261</v>
+        <v>2.100384712219238</v>
       </c>
       <c r="E1">
-        <v>1.19896424662473</v>
+        <v>1.082147002220154</v>
       </c>
     </row>
   </sheetData>
